--- a/laba 3/Factors.xlsx
+++ b/laba 3/Factors.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Фактор впливу</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>x7</t>
-  </si>
-  <si>
-    <t>x8</t>
-  </si>
-  <si>
-    <t>x9</t>
-  </si>
-  <si>
-    <t>x10</t>
   </si>
   <si>
     <t>-</t>
@@ -94,32 +85,23 @@
     <t>"10-40"</t>
   </si>
   <si>
-    <t>Тип датчика</t>
-  </si>
-  <si>
-    <t>Стан датчика</t>
-  </si>
-  <si>
     <t>Температура роботи</t>
   </si>
   <si>
     <t>Несправність блоку</t>
   </si>
   <si>
-    <t>Якість нанесення гелю для УЗД</t>
-  </si>
-  <si>
     <t>Використання контрасних речовин</t>
   </si>
   <si>
-    <t>Якість очищення датчика перед використанням</t>
+    <t xml:space="preserve">Розмір кімнати </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +159,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -243,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -484,14 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
@@ -499,7 +485,7 @@
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -521,55 +507,55 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -577,81 +563,57 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
